--- a/docs/excel/GoldRewardRatio.xlsx
+++ b/docs/excel/GoldRewardRatio.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
   </bookViews>
   <sheets>
-    <sheet name="Event" sheetId="1" r:id="rId1"/>
+    <sheet name="GoldRewardRatio" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TableName: "Event" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[]string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +99,10 @@
   </si>
   <si>
     <t>1_0.5|2_0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "GoldRewardRatio" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +531,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -559,7 +559,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -580,7 +580,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -592,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -1522,9 +1522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1535,7 +1533,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/docs/excel/GoldRewardRatio.xlsx
+++ b/docs/excel/GoldRewardRatio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -94,23 +94,125 @@
     <t>ListSpliter:"|"</t>
   </si>
   <si>
-    <t>1_0.1|2_0.2</t>
+    <t>TableName: "GoldRewardRatio" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_0.5|2_0.6</t>
+    <t>1_1800|2_1800|3_1800|4_1800|5_1800|6_1800|7_1800|8_1800|9_1800|10_1800|11_1800|12_1800|13_1800|14_1800|15_1800|16_1800|17_1800|18_1800|19_1800|20_1800|21_1800|22_1800|23_1800|24_1800|25_1800|26_1800|27_1800|28_1800|29_1800|30_1800|31_1800|32_1800|33_1800|34_1800|35_1800|36_1800|37_1800|38_1800|39_1800|40_1800|41_1800|42_1800|43_1800|44_1800|45_1800|46_1800|47_1800|48_1800|49_1800|50_1800|51_1800|52_1800|53_1800|54_1800|55_1800|56_1800|57_1800|58_1800|59_1800|60_1800|61_1800|62_1800|63_1800|64_1800|65_1800|66_1800|67_1800|68_1800|69_1800|70_1800|71_1800|72_1800|73_1800|74_1800|75_1800|76_1800|77_1800|78_1800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TableName: "GoldRewardRatio" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <t>1_3600|2_3600|3_3600|4_3600|5_3600|6_3600|7_3600|8_3600|9_3600|10_3600|11_3600|12_3600|13_3600|14_3600|15_3600|16_3600|17_3600|18_3600|19_3600|20_3600|21_3600|22_3600|23_3600|24_3600|25_3600|26_3600|27_3600|28_3600|29_3600|30_3600|31_3600|32_3600|33_3600|34_3600|35_3600|36_3600|37_3600|38_3600|39_3600|40_3600|41_3600|42_3600|43_3600|44_3600|45_3600|46_3600|47_3600|48_3600|49_3600|50_3600|51_3600|52_3600|53_3600|54_3600|55_3600|56_3600|57_3600|58_3600|59_3600|60_3600|61_3600|62_3600|63_3600|64_3600|65_3600|66_3600|67_3600|68_3600|69_3600|70_3600|71_3600|72_3600|73_3600|74_3600|75_3600|76_3600|77_3600|78_3600</t>
+  </si>
+  <si>
+    <t>1_5400|2_5400|3_5400|4_5400|5_5400|6_5400|7_5400|8_5400|9_5400|10_5400|11_5400|12_5400|13_5400|14_5400|15_5400|16_5400|17_5400|18_5400|19_5400|20_5400|21_5400|22_5400|23_5400|24_5400|25_5400|26_5400|27_5400|28_5400|29_5400|30_5400|31_5400|32_5400|33_5400|34_5400|35_5400|36_5400|37_5400|38_5400|39_5400|40_5400|41_5400|42_5400|43_5400|44_5400|45_5400|46_5400|47_5400|48_5400|49_5400|50_5400|51_5400|52_5400|53_5400|54_5400|55_5400|56_5400|57_5400|58_5400|59_5400|60_5400|61_5400|62_5400|63_5400|64_5400|65_5400|66_5400|67_5400|68_5400|69_5400|70_5400|71_5400|72_5400|73_5400|74_5400|75_5400|76_5400|77_5400|78_5400</t>
+  </si>
+  <si>
+    <t>1_1200|2_1200|3_1200|4_1200|5_1200|6_1200|7_1200|8_1200|9_1200|10_1200|11_1200|12_1200|13_1200|14_1200|15_1200|16_1200|17_1200|18_1200|19_1200|20_1200|21_1200|22_1200|23_1200|24_1200|25_1200|26_1200|27_1200|28_1200|29_1200|30_1200|31_1200|32_1200|33_1200|34_1200|35_1200|36_1200|37_1200|38_1200|39_1200|40_1200|41_1200|42_1200|43_1200|44_1200|45_1200|46_1200|47_1200|48_1200|49_1200|50_1200|51_1200|52_1200|53_1200|54_1200|55_1200|56_1200|57_1200|58_1200|59_1200|60_1200|61_1200|62_1200|63_1200|64_1200|65_1200|66_1200|67_1200|68_1200|69_1200|70_1200|71_1200|72_1200|73_1200|74_1200|75_1200|76_1200|77_1200|78_1200</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>太监</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>太医</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>侍卫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记忆翻牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对儿</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -169,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,6 +289,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -527,34 +632,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.09765625" customWidth="1"/>
-    <col min="3" max="4" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="66.3984375" customWidth="1"/>
+    <col min="3" max="3" width="23.3984375" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -567,7 +675,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,936 +683,955 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6"/>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+    <row r="7" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:9">
+    <row r="8" spans="1:9" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194"/>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196"/>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200"/>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202"/>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204"/>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206"/>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208"/>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210"/>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212"/>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214"/>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218"/>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222"/>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224"/>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226"/>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228"/>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230"/>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232"/>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234"/>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236"/>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238"/>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240"/>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268"/>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272"/>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274"/>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282"/>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284"/>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286"/>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288"/>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290"/>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292"/>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294"/>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296"/>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298"/>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300"/>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302"/>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304"/>
     </row>
   </sheetData>
@@ -1519,24 +1646,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1562,7 +1691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1587,6 +1716,9 @@
       <c r="H3" s="4" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/GoldRewardRatio.xlsx
+++ b/docs/excel/GoldRewardRatio.xlsx
@@ -98,14 +98,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_1800|2_1800|3_1800|4_1800|5_1800|6_1800|7_1800|8_1800|9_1800|10_1800|11_1800|12_1800|13_1800|14_1800|15_1800|16_1800|17_1800|18_1800|19_1800|20_1800|21_1800|22_1800|23_1800|24_1800|25_1800|26_1800|27_1800|28_1800|29_1800|30_1800|31_1800|32_1800|33_1800|34_1800|35_1800|36_1800|37_1800|38_1800|39_1800|40_1800|41_1800|42_1800|43_1800|44_1800|45_1800|46_1800|47_1800|48_1800|49_1800|50_1800|51_1800|52_1800|53_1800|54_1800|55_1800|56_1800|57_1800|58_1800|59_1800|60_1800|61_1800|62_1800|63_1800|64_1800|65_1800|66_1800|67_1800|68_1800|69_1800|70_1800|71_1800|72_1800|73_1800|74_1800|75_1800|76_1800|77_1800|78_1800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1_3600|2_3600|3_3600|4_3600|5_3600|6_3600|7_3600|8_3600|9_3600|10_3600|11_3600|12_3600|13_3600|14_3600|15_3600|16_3600|17_3600|18_3600|19_3600|20_3600|21_3600|22_3600|23_3600|24_3600|25_3600|26_3600|27_3600|28_3600|29_3600|30_3600|31_3600|32_3600|33_3600|34_3600|35_3600|36_3600|37_3600|38_3600|39_3600|40_3600|41_3600|42_3600|43_3600|44_3600|45_3600|46_3600|47_3600|48_3600|49_3600|50_3600|51_3600|52_3600|53_3600|54_3600|55_3600|56_3600|57_3600|58_3600|59_3600|60_3600|61_3600|62_3600|63_3600|64_3600|65_3600|66_3600|67_3600|68_3600|69_3600|70_3600|71_3600|72_3600|73_3600|74_3600|75_3600|76_3600|77_3600|78_3600</t>
-  </si>
-  <si>
-    <t>1_5400|2_5400|3_5400|4_5400|5_5400|6_5400|7_5400|8_5400|9_5400|10_5400|11_5400|12_5400|13_5400|14_5400|15_5400|16_5400|17_5400|18_5400|19_5400|20_5400|21_5400|22_5400|23_5400|24_5400|25_5400|26_5400|27_5400|28_5400|29_5400|30_5400|31_5400|32_5400|33_5400|34_5400|35_5400|36_5400|37_5400|38_5400|39_5400|40_5400|41_5400|42_5400|43_5400|44_5400|45_5400|46_5400|47_5400|48_5400|49_5400|50_5400|51_5400|52_5400|53_5400|54_5400|55_5400|56_5400|57_5400|58_5400|59_5400|60_5400|61_5400|62_5400|63_5400|64_5400|65_5400|66_5400|67_5400|68_5400|69_5400|70_5400|71_5400|72_5400|73_5400|74_5400|75_5400|76_5400|77_5400|78_5400</t>
   </si>
   <si>
     <t>1_1200|2_1200|3_1200|4_1200|5_1200|6_1200|7_1200|8_1200|9_1200|10_1200|11_1200|12_1200|13_1200|14_1200|15_1200|16_1200|17_1200|18_1200|19_1200|20_1200|21_1200|22_1200|23_1200|24_1200|25_1200|26_1200|27_1200|28_1200|29_1200|30_1200|31_1200|32_1200|33_1200|34_1200|35_1200|36_1200|37_1200|38_1200|39_1200|40_1200|41_1200|42_1200|43_1200|44_1200|45_1200|46_1200|47_1200|48_1200|49_1200|50_1200|51_1200|52_1200|53_1200|54_1200|55_1200|56_1200|57_1200|58_1200|59_1200|60_1200|61_1200|62_1200|63_1200|64_1200|65_1200|66_1200|67_1200|68_1200|69_1200|70_1200|71_1200|72_1200|73_1200|74_1200|75_1200|76_1200|77_1200|78_1200</t>
@@ -206,6 +199,12 @@
       <t>对儿</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_600|2_600|3_600|4_600|5_600|6_600|7_600|8_600|9_600|10_600|11_600|12_600|13_600|14_600|15_600|16_600|17_600|18_600|19_600|20_600|21_600|22_600|23_600|24_600|25_600|26_600|27_600|28_600|29_600|30_600|31_600|32_600|33_600|34_600|35_600|36_600|37_600|38_600|39_600|40_600|41_600|42_600|43_600|44_600|45_600|46_600|47_600|48_600|49_600|50_600|51_600|52_600|53_600|54_600|55_600|56_600|57_600|58_600|59_600|60_600|61_600|62_600|63_600|64_600|65_600|66_600|67_600|68_600|69_600|70_600|71_600|72_600|73_600|74_600|75_600|76_600|77_600|78_600</t>
+  </si>
+  <si>
+    <t>1_1800|2_1800|3_1800|4_1800|5_1800|6_1800|7_1800|8_1800|9_1800|10_1800|11_1800|12_1800|13_1800|14_1800|15_1800|16_1800|17_1800|18_1800|19_1800|20_1800|21_1800|22_1800|23_1800|24_1800|25_1800|26_1800|27_1800|28_1800|29_1800|30_1800|31_1800|32_1800|33_1800|34_1800|35_1800|36_1800|37_1800|38_1800|39_1800|40_1800|41_1800|42_1800|43_1800|44_1800|45_1800|46_1800|47_1800|48_1800|49_1800|50_1800|51_1800|52_1800|53_1800|54_1800|55_1800|56_1800|57_1800|58_1800|59_1800|60_1800|61_1800|62_1800|63_1800|64_1800|65_1800|66_1800|67_1800|68_1800|69_1800|70_1800|71_1800|72_1800|73_1800|74_1800|75_1800|76_1800|77_1800|78_1800</t>
   </si>
 </sst>
 </file>
@@ -635,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -655,7 +654,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="6"/>
       <c r="G1" s="6"/>
@@ -691,7 +690,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5"/>
       <c r="G4" s="5"/>
@@ -702,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -714,10 +713,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -726,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -738,10 +737,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">

--- a/docs/excel/GoldRewardRatio.xlsx
+++ b/docs/excel/GoldRewardRatio.xlsx
@@ -10,7 +10,7 @@
     <sheet name="GoldRewardRatio" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -96,12 +96,6 @@
   <si>
     <t>TableName: "GoldRewardRatio" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_3600|2_3600|3_3600|4_3600|5_3600|6_3600|7_3600|8_3600|9_3600|10_3600|11_3600|12_3600|13_3600|14_3600|15_3600|16_3600|17_3600|18_3600|19_3600|20_3600|21_3600|22_3600|23_3600|24_3600|25_3600|26_3600|27_3600|28_3600|29_3600|30_3600|31_3600|32_3600|33_3600|34_3600|35_3600|36_3600|37_3600|38_3600|39_3600|40_3600|41_3600|42_3600|43_3600|44_3600|45_3600|46_3600|47_3600|48_3600|49_3600|50_3600|51_3600|52_3600|53_3600|54_3600|55_3600|56_3600|57_3600|58_3600|59_3600|60_3600|61_3600|62_3600|63_3600|64_3600|65_3600|66_3600|67_3600|68_3600|69_3600|70_3600|71_3600|72_3600|73_3600|74_3600|75_3600|76_3600|77_3600|78_3600</t>
-  </si>
-  <si>
-    <t>1_1200|2_1200|3_1200|4_1200|5_1200|6_1200|7_1200|8_1200|9_1200|10_1200|11_1200|12_1200|13_1200|14_1200|15_1200|16_1200|17_1200|18_1200|19_1200|20_1200|21_1200|22_1200|23_1200|24_1200|25_1200|26_1200|27_1200|28_1200|29_1200|30_1200|31_1200|32_1200|33_1200|34_1200|35_1200|36_1200|37_1200|38_1200|39_1200|40_1200|41_1200|42_1200|43_1200|44_1200|45_1200|46_1200|47_1200|48_1200|49_1200|50_1200|51_1200|52_1200|53_1200|54_1200|55_1200|56_1200|57_1200|58_1200|59_1200|60_1200|61_1200|62_1200|63_1200|64_1200|65_1200|66_1200|67_1200|68_1200|69_1200|70_1200|71_1200|72_1200|73_1200|74_1200|75_1200|76_1200|77_1200|78_1200</t>
   </si>
   <si>
     <t>#</t>
@@ -205,6 +199,12 @@
   </si>
   <si>
     <t>1_1800|2_1800|3_1800|4_1800|5_1800|6_1800|7_1800|8_1800|9_1800|10_1800|11_1800|12_1800|13_1800|14_1800|15_1800|16_1800|17_1800|18_1800|19_1800|20_1800|21_1800|22_1800|23_1800|24_1800|25_1800|26_1800|27_1800|28_1800|29_1800|30_1800|31_1800|32_1800|33_1800|34_1800|35_1800|36_1800|37_1800|38_1800|39_1800|40_1800|41_1800|42_1800|43_1800|44_1800|45_1800|46_1800|47_1800|48_1800|49_1800|50_1800|51_1800|52_1800|53_1800|54_1800|55_1800|56_1800|57_1800|58_1800|59_1800|60_1800|61_1800|62_1800|63_1800|64_1800|65_1800|66_1800|67_1800|68_1800|69_1800|70_1800|71_1800|72_1800|73_1800|74_1800|75_1800|76_1800|77_1800|78_1800</t>
+  </si>
+  <si>
+    <t>1_180|2_180|3_180|4_180|5_180|6_180|7_180|8_180|9_180|10_180|11_180|12_180|13_180|14_180|15_180|16_180|17_180|18_180|19_180|20_180|21_180|22_180|23_180|24_180|25_180|26_180|27_180|28_180|29_180|30_180|31_180|32_180|33_180|34_180|35_180|36_180|37_180|38_180|39_180|40_180|41_180|42_180|43_180|44_180|45_180|46_180|47_180|48_180|49_180|50_180|51_180|52_180|53_180|54_180|55_180|56_180|57_180|58_180|59_180|60_180|61_180|62_180|63_180|64_180|65_180|66_180|67_180|68_180|69_180|70_180|71_180|72_180|73_180|74_180|75_180|76_180|77_180|78_180</t>
+  </si>
+  <si>
+    <t>1_610|2_610|3_610|4_610|5_610|6_610|7_610|8_610|9_610|10_610|11_610|12_610|13_610|14_610|15_610|16_610|17_610|18_610|19_610|20_610|21_610|22_610|23_610|24_610|25_610|26_610|27_610|28_610|29_610|30_610|31_610|32_610|33_610|34_610|35_610|36_610|37_610|38_610|39_610|40_610|41_610|42_610|43_610|44_610|45_610|46_610|47_610|48_610|49_610|50_610|51_610|52_610|53_610|54_610|55_610|56_610|57_610|58_610|59_610|60_610|61_610|62_610|63_610|64_610|65_610|66_610|67_610|68_610|69_610|70_610|71_610|72_610|73_610|74_610|75_610|76_610|77_610|78_610</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -654,7 +654,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="6"/>
       <c r="G1" s="6"/>
@@ -690,7 +690,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5"/>
       <c r="G4" s="5"/>
@@ -704,7 +704,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -713,10 +713,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -725,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -737,10 +737,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
